--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -53,9 +53,6 @@
     <t>No figura en la lista final</t>
   </si>
   <si>
-    <t>[S1-ADBDS] ADMINISTRACIÓN DE BASE DE DATOS</t>
-  </si>
-  <si>
     <t>CICLO</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>VERA FUERTES DAVID EDUARDO</t>
+  </si>
+  <si>
+    <t>[S4-ADBDS] ADMINISTRACIÓN DE BASE DE DATOS</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -661,38 +661,38 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="15">
         <v>201906</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="16">
         <v>43645</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -908,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -928,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
